--- a/Fall-Semester/ANLT600/Test4/Health data_Tai.xlsx
+++ b/Fall-Semester/ANLT600/Test4/Health data_Tai.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1080" documentId="11_584E7FBFF7993E895E4D8452258401311C2E04FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5CB8153-6B51-004D-9391-8F51A42DBFD1}"/>
+  <xr:revisionPtr revIDLastSave="1081" documentId="11_584E7FBFF7993E895E4D8452258401311C2E04FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24E6F823-14B5-EC45-A86B-96ED5326BF9E}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="27520" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="27520" windowHeight="17500" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -410,9 +410,6 @@
     <t>r2 = 89.8%</t>
   </si>
   <si>
-    <t>increase - decrease</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -420,6 +417,9 @@
   </si>
   <si>
     <t>r2 = 0.5%</t>
+  </si>
+  <si>
+    <t>increase - lower</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -702,13 +702,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -16700,11 +16694,11 @@
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="46">
         <f>AVERAGEIF($A$2:$A$41,F3,$B$2:$B$41)</f>
         <v>50.043478260869563</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="46">
         <f>_xlfn.STDEV.S(N19:N41)</f>
         <v>11.683236868069351</v>
       </c>
@@ -16733,11 +16727,11 @@
       <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="46">
         <f>AVERAGEIF($A$2:$A$41,F4,$B$2:$B$41)</f>
         <v>49.588235294117645</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="46">
         <f>_xlfn.STDEV.S(N2:N18)</f>
         <v>17.432221686898561</v>
       </c>
@@ -17402,8 +17396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA2E44-06B6-2B4E-9AF6-A645982AFFD0}">
   <dimension ref="A3:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17414,7 +17408,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>116</v>
       </c>
     </row>
@@ -17430,7 +17424,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -17453,12 +17447,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>413.3</v>
@@ -17478,13 +17472,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="51" t="s">
-        <v>121</v>
+      <c r="B8" s="47" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -20954,7 +20948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511FC1B-BC36-4749-A836-7975098E56D6}">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+    <sheetView zoomScale="81" workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
@@ -23360,7 +23354,7 @@
         <v>18</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I20" si="2">COUNTIF($C$2:$C$41,H14)</f>
+        <f t="shared" ref="I14:I18" si="2">COUNTIF($C$2:$C$41,H14)</f>
         <v>2</v>
       </c>
       <c r="J14">
@@ -23927,10 +23921,10 @@
       <c r="K45" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M45" s="50">
+      <c r="M45" s="46">
         <v>49.85</v>
       </c>
-      <c r="N45" s="50">
+      <c r="N45" s="46">
         <v>14.202834675532662</v>
       </c>
     </row>
@@ -23959,10 +23953,10 @@
       <c r="K46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M46" s="50">
+      <c r="M46" s="46">
         <v>68.335000000000008</v>
       </c>
-      <c r="N46" s="50">
+      <c r="N46" s="46">
         <v>3.0195559191241932</v>
       </c>
     </row>
@@ -23991,10 +23985,10 @@
       <c r="K47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M47" s="50">
+      <c r="M47" s="46">
         <v>172.5500000000001</v>
       </c>
-      <c r="N47" s="50">
+      <c r="N47" s="46">
         <v>26.327162535667515</v>
       </c>
     </row>
@@ -24023,10 +24017,10 @@
       <c r="K48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48">
         <v>69.400000000000006</v>
       </c>
-      <c r="N48" s="50">
+      <c r="N48" s="46">
         <v>11.297378865505458</v>
       </c>
     </row>
@@ -24055,10 +24049,10 @@
       <c r="K49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="M49" s="50">
+      <c r="M49" s="46">
         <v>99.275000000000006</v>
       </c>
-      <c r="N49" s="50">
+      <c r="N49" s="46">
         <v>2.2869473551282731</v>
       </c>
     </row>
@@ -24087,10 +24081,10 @@
       <c r="K50" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M50" s="50">
+      <c r="M50" s="46">
         <v>395.22500000000002</v>
       </c>
-      <c r="N50" s="50">
+      <c r="N50" s="46">
         <v>292.41176512687611</v>
       </c>
     </row>
@@ -24119,10 +24113,10 @@
       <c r="K51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51">
         <v>7.3</v>
       </c>
-      <c r="N51" s="50">
+      <c r="N51" s="46">
         <v>4.3038444352784087</v>
       </c>
     </row>
@@ -24217,18 +24211,18 @@
       <c r="G55" s="4">
         <v>8</v>
       </c>
-      <c r="I55" s="48" t="s">
+      <c r="I55" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J55" s="48"/>
-      <c r="L55" s="48" t="s">
+      <c r="J55" s="35"/>
+      <c r="L55" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M55" s="48"/>
-      <c r="O55" s="48" t="s">
+      <c r="M55" s="35"/>
+      <c r="O55" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P55" s="48"/>
+      <c r="P55" s="35"/>
     </row>
     <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
@@ -24252,12 +24246,6 @@
       <c r="G56" s="4">
         <v>7</v>
       </c>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="O56" s="46"/>
-      <c r="P56" s="46"/>
     </row>
     <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
@@ -24281,22 +24269,22 @@
       <c r="G57" s="4">
         <v>6</v>
       </c>
-      <c r="I57" s="46" t="s">
+      <c r="I57" t="s">
         <v>50</v>
       </c>
-      <c r="J57" s="46">
+      <c r="J57">
         <v>49.85</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" t="s">
         <v>50</v>
       </c>
-      <c r="M57" s="46">
+      <c r="M57">
         <v>68.335000000000008</v>
       </c>
-      <c r="O57" s="46" t="s">
+      <c r="O57" t="s">
         <v>50</v>
       </c>
-      <c r="P57" s="46">
+      <c r="P57">
         <v>172.5500000000001</v>
       </c>
     </row>
@@ -24322,22 +24310,22 @@
       <c r="G58" s="4">
         <v>2</v>
       </c>
-      <c r="I58" s="46" t="s">
+      <c r="I58" t="s">
         <v>51</v>
       </c>
-      <c r="J58" s="46">
+      <c r="J58">
         <v>2.2456653402750875</v>
       </c>
-      <c r="L58" s="46" t="s">
+      <c r="L58" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="46">
+      <c r="M58">
         <v>0.47743371133378165</v>
       </c>
-      <c r="O58" s="46" t="s">
+      <c r="O58" t="s">
         <v>51</v>
       </c>
-      <c r="P58" s="46">
+      <c r="P58">
         <v>4.1626898971081641</v>
       </c>
     </row>
@@ -24363,22 +24351,22 @@
       <c r="G59" s="4">
         <v>11</v>
       </c>
-      <c r="I59" s="46" t="s">
+      <c r="I59" t="s">
         <v>52</v>
       </c>
-      <c r="J59" s="46">
+      <c r="J59">
         <v>49.5</v>
       </c>
-      <c r="L59" s="46" t="s">
+      <c r="L59" t="s">
         <v>52</v>
       </c>
-      <c r="M59" s="46">
+      <c r="M59">
         <v>68.3</v>
       </c>
-      <c r="O59" s="46" t="s">
+      <c r="O59" t="s">
         <v>52</v>
       </c>
-      <c r="P59" s="46">
+      <c r="P59">
         <v>169.95</v>
       </c>
     </row>
@@ -24404,22 +24392,22 @@
       <c r="G60" s="4">
         <v>9</v>
       </c>
-      <c r="I60" s="46" t="s">
+      <c r="I60" t="s">
         <v>53</v>
       </c>
-      <c r="J60" s="46">
+      <c r="J60">
         <v>68</v>
       </c>
-      <c r="L60" s="46" t="s">
+      <c r="L60" t="s">
         <v>53</v>
       </c>
-      <c r="M60" s="46">
+      <c r="M60">
         <v>68.3</v>
       </c>
-      <c r="O60" s="46" t="s">
+      <c r="O60" t="s">
         <v>53</v>
       </c>
-      <c r="P60" s="46" t="e">
+      <c r="P60" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -24445,22 +24433,22 @@
       <c r="G61" s="4">
         <v>7</v>
       </c>
-      <c r="I61" s="46" t="s">
+      <c r="I61" t="s">
         <v>54</v>
       </c>
-      <c r="J61" s="46">
+      <c r="J61">
         <v>14.202834675532662</v>
       </c>
-      <c r="L61" s="46" t="s">
+      <c r="L61" t="s">
         <v>54</v>
       </c>
-      <c r="M61" s="46">
+      <c r="M61">
         <v>3.0195559191241932</v>
       </c>
-      <c r="O61" s="46" t="s">
+      <c r="O61" t="s">
         <v>54</v>
       </c>
-      <c r="P61" s="46">
+      <c r="P61">
         <v>26.327162535667515</v>
       </c>
     </row>
@@ -24486,22 +24474,22 @@
       <c r="G62" s="4">
         <v>5</v>
       </c>
-      <c r="I62" s="46" t="s">
+      <c r="I62" t="s">
         <v>55</v>
       </c>
-      <c r="J62" s="46">
+      <c r="J62">
         <v>201.72051282051297</v>
       </c>
-      <c r="L62" s="46" t="s">
+      <c r="L62" t="s">
         <v>55</v>
       </c>
-      <c r="M62" s="46">
+      <c r="M62">
         <v>9.1177179487179512</v>
       </c>
-      <c r="O62" s="46" t="s">
+      <c r="O62" t="s">
         <v>55</v>
       </c>
-      <c r="P62" s="46">
+      <c r="P62">
         <v>693.11948717945518</v>
       </c>
     </row>
@@ -24527,22 +24515,22 @@
       <c r="G63" s="4">
         <v>4</v>
       </c>
-      <c r="I63" s="46" t="s">
+      <c r="I63" t="s">
         <v>56</v>
       </c>
-      <c r="J63" s="46">
+      <c r="J63">
         <v>-0.62992781792904484</v>
       </c>
-      <c r="L63" s="46" t="s">
+      <c r="L63" t="s">
         <v>56</v>
       </c>
-      <c r="M63" s="46">
+      <c r="M63">
         <v>0.50555863073135576</v>
       </c>
-      <c r="O63" s="46" t="s">
+      <c r="O63" t="s">
         <v>56</v>
       </c>
-      <c r="P63" s="46">
+      <c r="P63">
         <v>-0.16641631736650631</v>
       </c>
     </row>
@@ -24568,22 +24556,22 @@
       <c r="G64" s="4">
         <v>2</v>
       </c>
-      <c r="I64" s="46" t="s">
+      <c r="I64" t="s">
         <v>57</v>
       </c>
-      <c r="J64" s="46">
+      <c r="J64">
         <v>-2.079796525781499E-2</v>
       </c>
-      <c r="L64" s="46" t="s">
+      <c r="L64" t="s">
         <v>57</v>
       </c>
-      <c r="M64" s="46">
+      <c r="M64">
         <v>4.5652331555308429E-2</v>
       </c>
-      <c r="O64" s="46" t="s">
+      <c r="O64" t="s">
         <v>57</v>
       </c>
-      <c r="P64" s="46">
+      <c r="P64">
         <v>0.37037477969411386</v>
       </c>
     </row>
@@ -24609,22 +24597,22 @@
       <c r="G65" s="4">
         <v>1</v>
       </c>
-      <c r="I65" s="46" t="s">
+      <c r="I65" t="s">
         <v>58</v>
       </c>
-      <c r="J65" s="46">
+      <c r="J65">
         <v>57</v>
       </c>
-      <c r="L65" s="46" t="s">
+      <c r="L65" t="s">
         <v>58</v>
       </c>
-      <c r="M65" s="46">
+      <c r="M65">
         <v>14.900000000000006</v>
       </c>
-      <c r="O65" s="46" t="s">
+      <c r="O65" t="s">
         <v>58</v>
       </c>
-      <c r="P65" s="46">
+      <c r="P65">
         <v>117.6</v>
       </c>
     </row>
@@ -24650,22 +24638,22 @@
       <c r="G66" s="4">
         <v>1</v>
       </c>
-      <c r="I66" s="46" t="s">
+      <c r="I66" t="s">
         <v>59</v>
       </c>
-      <c r="J66" s="46">
+      <c r="J66">
         <v>20</v>
       </c>
-      <c r="L66" s="46" t="s">
+      <c r="L66" t="s">
         <v>59</v>
       </c>
-      <c r="M66" s="46">
+      <c r="M66">
         <v>61.3</v>
       </c>
-      <c r="O66" s="46" t="s">
+      <c r="O66" t="s">
         <v>59</v>
       </c>
-      <c r="P66" s="46">
+      <c r="P66">
         <v>119.5</v>
       </c>
     </row>
@@ -24691,22 +24679,22 @@
       <c r="G67" s="4">
         <v>14</v>
       </c>
-      <c r="I67" s="46" t="s">
+      <c r="I67" t="s">
         <v>60</v>
       </c>
-      <c r="J67" s="46">
+      <c r="J67">
         <v>77</v>
       </c>
-      <c r="L67" s="46" t="s">
+      <c r="L67" t="s">
         <v>60</v>
       </c>
-      <c r="M67" s="46">
+      <c r="M67">
         <v>76.2</v>
       </c>
-      <c r="O67" s="46" t="s">
+      <c r="O67" t="s">
         <v>60</v>
       </c>
-      <c r="P67" s="46">
+      <c r="P67">
         <v>237.1</v>
       </c>
     </row>
@@ -24732,22 +24720,22 @@
       <c r="G68" s="4">
         <v>12</v>
       </c>
-      <c r="I68" s="46" t="s">
+      <c r="I68" t="s">
         <v>61</v>
       </c>
-      <c r="J68" s="46">
+      <c r="J68">
         <v>1994</v>
       </c>
-      <c r="L68" s="46" t="s">
+      <c r="L68" t="s">
         <v>61</v>
       </c>
-      <c r="M68" s="46">
+      <c r="M68">
         <v>2733.4</v>
       </c>
-      <c r="O68" s="46" t="s">
+      <c r="O68" t="s">
         <v>61</v>
       </c>
-      <c r="P68" s="46">
+      <c r="P68">
         <v>6902.0000000000036</v>
       </c>
     </row>
@@ -24773,22 +24761,22 @@
       <c r="G69" s="4">
         <v>11</v>
       </c>
-      <c r="I69" s="47" t="s">
+      <c r="I69" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J69" s="47">
+      <c r="J69" s="33">
         <v>40</v>
       </c>
-      <c r="L69" s="47" t="s">
+      <c r="L69" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="M69" s="47">
+      <c r="M69" s="33">
         <v>40</v>
       </c>
-      <c r="O69" s="47" t="s">
+      <c r="O69" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P69" s="47">
+      <c r="P69" s="33">
         <v>40</v>
       </c>
     </row>
@@ -24892,22 +24880,22 @@
       <c r="G73" s="4">
         <v>7</v>
       </c>
-      <c r="I73" s="48" t="s">
+      <c r="I73" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="48"/>
-      <c r="L73" s="48" t="s">
+      <c r="J73" s="35"/>
+      <c r="L73" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M73" s="48"/>
-      <c r="O73" s="48" t="s">
+      <c r="M73" s="35"/>
+      <c r="O73" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="P73" s="48"/>
-      <c r="R73" s="48" t="s">
+      <c r="P73" s="35"/>
+      <c r="R73" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="S73" s="48"/>
+      <c r="S73" s="35"/>
     </row>
     <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -24931,14 +24919,6 @@
       <c r="G74" s="4">
         <v>6</v>
       </c>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="46"/>
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
-      <c r="R74" s="46"/>
-      <c r="S74" s="46"/>
     </row>
     <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
@@ -24962,28 +24942,28 @@
       <c r="G75" s="4">
         <v>2</v>
       </c>
-      <c r="I75" s="46" t="s">
+      <c r="I75" t="s">
         <v>50</v>
       </c>
-      <c r="J75" s="46">
+      <c r="J75">
         <v>69.400000000000006</v>
       </c>
-      <c r="L75" s="46" t="s">
+      <c r="L75" t="s">
         <v>50</v>
       </c>
-      <c r="M75" s="46">
+      <c r="M75">
         <v>99.275000000000006</v>
       </c>
-      <c r="O75" s="46" t="s">
+      <c r="O75" t="s">
         <v>50</v>
       </c>
-      <c r="P75" s="46">
+      <c r="P75">
         <v>395.22500000000002</v>
       </c>
-      <c r="R75" s="46" t="s">
+      <c r="R75" t="s">
         <v>50</v>
       </c>
-      <c r="S75" s="46">
+      <c r="S75">
         <v>7.3</v>
       </c>
     </row>
@@ -25009,28 +24989,28 @@
       <c r="G76" s="4">
         <v>2</v>
       </c>
-      <c r="I76" s="46" t="s">
+      <c r="I76" t="s">
         <v>51</v>
       </c>
-      <c r="J76" s="46">
+      <c r="J76">
         <v>1.7862724402423149</v>
       </c>
-      <c r="L76" s="46" t="s">
+      <c r="L76" t="s">
         <v>51</v>
       </c>
-      <c r="M76" s="46">
+      <c r="M76">
         <v>0.36159812655516493</v>
       </c>
-      <c r="O76" s="46" t="s">
+      <c r="O76" t="s">
         <v>51</v>
       </c>
-      <c r="P76" s="46">
+      <c r="P76">
         <v>46.234359621556173</v>
       </c>
-      <c r="R76" s="46" t="s">
+      <c r="R76" t="s">
         <v>51</v>
       </c>
-      <c r="S76" s="46">
+      <c r="S76">
         <v>0.68049755552604529</v>
       </c>
     </row>
@@ -25056,28 +25036,28 @@
       <c r="G77" s="4">
         <v>0</v>
       </c>
-      <c r="I77" s="46" t="s">
+      <c r="I77" t="s">
         <v>52</v>
       </c>
-      <c r="J77" s="46">
+      <c r="J77">
         <v>66</v>
       </c>
-      <c r="L77" s="46" t="s">
+      <c r="L77" t="s">
         <v>52</v>
       </c>
-      <c r="M77" s="46">
+      <c r="M77">
         <v>99</v>
       </c>
-      <c r="O77" s="46" t="s">
+      <c r="O77" t="s">
         <v>52</v>
       </c>
-      <c r="P77" s="46">
+      <c r="P77">
         <v>282.5</v>
       </c>
-      <c r="R77" s="46" t="s">
+      <c r="R77" t="s">
         <v>52</v>
       </c>
-      <c r="S77" s="46">
+      <c r="S77">
         <v>8</v>
       </c>
     </row>
@@ -25103,28 +25083,28 @@
       <c r="G78" s="4">
         <v>0</v>
       </c>
-      <c r="I78" s="46" t="s">
+      <c r="I78" t="s">
         <v>53</v>
       </c>
-      <c r="J78" s="46">
+      <c r="J78">
         <v>64</v>
       </c>
-      <c r="L78" s="46" t="s">
+      <c r="L78" t="s">
         <v>53</v>
       </c>
-      <c r="M78" s="46">
+      <c r="M78">
         <v>101</v>
       </c>
-      <c r="O78" s="46" t="s">
+      <c r="O78" t="s">
         <v>53</v>
       </c>
-      <c r="P78" s="46">
+      <c r="P78">
         <v>265</v>
       </c>
-      <c r="R78" s="46" t="s">
+      <c r="R78" t="s">
         <v>53</v>
       </c>
-      <c r="S78" s="46">
+      <c r="S78">
         <v>8</v>
       </c>
     </row>
@@ -25150,28 +25130,28 @@
       <c r="G79" s="4">
         <v>11</v>
       </c>
-      <c r="I79" s="46" t="s">
+      <c r="I79" t="s">
         <v>54</v>
       </c>
-      <c r="J79" s="46">
+      <c r="J79">
         <v>11.297378865505458</v>
       </c>
-      <c r="L79" s="46" t="s">
+      <c r="L79" t="s">
         <v>54</v>
       </c>
-      <c r="M79" s="46">
+      <c r="M79">
         <v>2.2869473551282731</v>
       </c>
-      <c r="O79" s="46" t="s">
+      <c r="O79" t="s">
         <v>54</v>
       </c>
-      <c r="P79" s="46">
+      <c r="P79">
         <v>292.41176512687611</v>
       </c>
-      <c r="R79" s="46" t="s">
+      <c r="R79" t="s">
         <v>54</v>
       </c>
-      <c r="S79" s="46">
+      <c r="S79">
         <v>4.3038444352784087</v>
       </c>
     </row>
@@ -25197,28 +25177,28 @@
       <c r="G80" s="4">
         <v>8</v>
       </c>
-      <c r="I80" s="46" t="s">
+      <c r="I80" t="s">
         <v>55</v>
       </c>
-      <c r="J80" s="46">
+      <c r="J80">
         <v>127.63076923076937</v>
       </c>
-      <c r="L80" s="46" t="s">
+      <c r="L80" t="s">
         <v>55</v>
       </c>
-      <c r="M80" s="46">
+      <c r="M80">
         <v>5.2301282051282039</v>
       </c>
-      <c r="O80" s="46" t="s">
+      <c r="O80" t="s">
         <v>55</v>
       </c>
-      <c r="P80" s="46">
+      <c r="P80">
         <v>85504.64038461537</v>
       </c>
-      <c r="R80" s="46" t="s">
+      <c r="R80" t="s">
         <v>55</v>
       </c>
-      <c r="S80" s="46">
+      <c r="S80">
         <v>18.523076923076925</v>
       </c>
     </row>
@@ -25244,28 +25224,28 @@
       <c r="G81" s="4">
         <v>7</v>
       </c>
-      <c r="I81" s="46" t="s">
+      <c r="I81" t="s">
         <v>56</v>
       </c>
-      <c r="J81" s="46">
+      <c r="J81">
         <v>-0.6395175820074841</v>
       </c>
-      <c r="L81" s="46" t="s">
+      <c r="L81" t="s">
         <v>56</v>
       </c>
-      <c r="M81" s="46">
+      <c r="M81">
         <v>-1.1872729824270762</v>
       </c>
-      <c r="O81" s="46" t="s">
+      <c r="O81" t="s">
         <v>56</v>
       </c>
-      <c r="P81" s="46">
+      <c r="P81">
         <v>0.47143125149810761</v>
       </c>
-      <c r="R81" s="46" t="s">
+      <c r="R81" t="s">
         <v>56</v>
       </c>
-      <c r="S81" s="46">
+      <c r="S81">
         <v>-1.1479706940548411</v>
       </c>
     </row>
@@ -25291,28 +25271,28 @@
       <c r="G82" s="4">
         <v>3</v>
       </c>
-      <c r="I82" s="46" t="s">
+      <c r="I82" t="s">
         <v>57</v>
       </c>
-      <c r="J82" s="46">
+      <c r="J82">
         <v>0.68002365789764041</v>
       </c>
-      <c r="L82" s="46" t="s">
+      <c r="L82" t="s">
         <v>57</v>
       </c>
-      <c r="M82" s="46">
+      <c r="M82">
         <v>9.001061157007044E-2</v>
       </c>
-      <c r="O82" s="46" t="s">
+      <c r="O82" t="s">
         <v>57</v>
       </c>
-      <c r="P82" s="46">
+      <c r="P82">
         <v>0.96657635197114089</v>
       </c>
-      <c r="R82" s="46" t="s">
+      <c r="R82" t="s">
         <v>57</v>
       </c>
-      <c r="S82" s="46">
+      <c r="S82">
         <v>-0.13923148100207461</v>
       </c>
     </row>
@@ -25338,28 +25318,28 @@
       <c r="G83" s="4">
         <v>3</v>
       </c>
-      <c r="I83" s="46" t="s">
+      <c r="I83" t="s">
         <v>58</v>
       </c>
-      <c r="J83" s="46">
+      <c r="J83">
         <v>40</v>
       </c>
-      <c r="L83" s="46" t="s">
+      <c r="L83" t="s">
         <v>58</v>
       </c>
-      <c r="M83" s="46">
+      <c r="M83">
         <v>7</v>
       </c>
-      <c r="O83" s="46" t="s">
+      <c r="O83" t="s">
         <v>58</v>
       </c>
-      <c r="P83" s="46">
+      <c r="P83">
         <v>1221</v>
       </c>
-      <c r="R83" s="46" t="s">
+      <c r="R83" t="s">
         <v>58</v>
       </c>
-      <c r="S83" s="46">
+      <c r="S83">
         <v>14</v>
       </c>
     </row>
@@ -25385,106 +25365,106 @@
       <c r="G84" s="4">
         <v>2</v>
       </c>
-      <c r="I84" s="46" t="s">
+      <c r="I84" t="s">
         <v>59</v>
       </c>
-      <c r="J84" s="46">
+      <c r="J84">
         <v>56</v>
       </c>
-      <c r="L84" s="46" t="s">
+      <c r="L84" t="s">
         <v>59</v>
       </c>
-      <c r="M84" s="46">
+      <c r="M84">
         <v>96</v>
       </c>
-      <c r="O84" s="46" t="s">
+      <c r="O84" t="s">
         <v>59</v>
       </c>
-      <c r="P84" s="46">
+      <c r="P84">
         <v>31</v>
       </c>
-      <c r="R84" s="46" t="s">
+      <c r="R84" t="s">
         <v>59</v>
       </c>
-      <c r="S84" s="46">
+      <c r="S84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I85" s="46" t="s">
+      <c r="I85" t="s">
         <v>60</v>
       </c>
-      <c r="J85" s="46">
+      <c r="J85">
         <v>96</v>
       </c>
-      <c r="L85" s="46" t="s">
+      <c r="L85" t="s">
         <v>60</v>
       </c>
-      <c r="M85" s="46">
+      <c r="M85">
         <v>103</v>
       </c>
-      <c r="O85" s="46" t="s">
+      <c r="O85" t="s">
         <v>60</v>
       </c>
-      <c r="P85" s="46">
+      <c r="P85">
         <v>1252</v>
       </c>
-      <c r="R85" s="46" t="s">
+      <c r="R85" t="s">
         <v>60</v>
       </c>
-      <c r="S85" s="46">
+      <c r="S85">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I86" s="46" t="s">
+      <c r="I86" t="s">
         <v>61</v>
       </c>
-      <c r="J86" s="46">
+      <c r="J86">
         <v>2776</v>
       </c>
-      <c r="L86" s="46" t="s">
+      <c r="L86" t="s">
         <v>61</v>
       </c>
-      <c r="M86" s="46">
+      <c r="M86">
         <v>3971</v>
       </c>
-      <c r="O86" s="46" t="s">
+      <c r="O86" t="s">
         <v>61</v>
       </c>
-      <c r="P86" s="46">
+      <c r="P86">
         <v>15809</v>
       </c>
-      <c r="R86" s="46" t="s">
+      <c r="R86" t="s">
         <v>61</v>
       </c>
-      <c r="S86" s="46">
+      <c r="S86">
         <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I87" s="47" t="s">
+      <c r="I87" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="J87" s="47">
+      <c r="J87" s="33">
         <v>40</v>
       </c>
-      <c r="L87" s="47" t="s">
+      <c r="L87" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="M87" s="47">
+      <c r="M87" s="33">
         <v>40</v>
       </c>
-      <c r="O87" s="47" t="s">
+      <c r="O87" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="P87" s="47">
+      <c r="P87" s="33">
         <v>40</v>
       </c>
-      <c r="R87" s="47" t="s">
+      <c r="R87" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="S87" s="47">
+      <c r="S87" s="33">
         <v>40</v>
       </c>
     </row>

--- a/Fall-Semester/ANLT600/Test4/Health data_Tai.xlsx
+++ b/Fall-Semester/ANLT600/Test4/Health data_Tai.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1081" documentId="11_584E7FBFF7993E895E4D8452258401311C2E04FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24E6F823-14B5-EC45-A86B-96ED5326BF9E}"/>
+  <xr:revisionPtr revIDLastSave="1082" documentId="11_584E7FBFF7993E895E4D8452258401311C2E04FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054D7358-4415-4867-ABE0-295E01EE6E58}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="27520" windowHeight="17500" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
     <t>r2 = 0.5%</t>
   </si>
   <si>
-    <t>increase - lower</t>
+    <t>high - lower</t>
   </si>
 </sst>
 </file>
@@ -13819,8 +13819,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5026025" y="306387"/>
-              <a:ext cx="5016500" cy="2759075"/>
+              <a:off x="4429125" y="309562"/>
+              <a:ext cx="4438650" cy="2752725"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13897,8 +13897,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14206998" y="4537894"/>
-              <a:ext cx="5122606" cy="2721078"/>
+              <a:off x="12454398" y="4528369"/>
+              <a:ext cx="4493956" cy="2721078"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14455,21 +14455,21 @@
       <selection activeCell="F1" sqref="F1:L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14507,7 +14507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -14659,7 +14659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -14811,7 +14811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -14849,7 +14849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -15039,7 +15039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -15419,7 +15419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -15457,7 +15457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -15495,7 +15495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>29</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>29</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -16041,7 +16041,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -16055,7 +16055,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="8" t="s">
         <v>30</v>
@@ -16071,7 +16071,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="8" t="s">
         <v>31</v>
@@ -16087,7 +16087,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="8" t="s">
         <v>32</v>
@@ -16103,7 +16103,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="8" t="s">
         <v>33</v>
@@ -16119,7 +16119,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="5"/>
     </row>
-    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="8" t="s">
         <v>34</v>
@@ -16135,7 +16135,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="5"/>
     </row>
-    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="8" t="s">
         <v>35</v>
@@ -16151,7 +16151,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="8" t="s">
         <v>36</v>
@@ -16180,9 +16180,9 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
@@ -16639,9 +16639,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -16750,7 +16750,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -16786,7 +16786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -16954,7 +16954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -16996,7 +16996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -17206,7 +17206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
@@ -17293,34 +17293,34 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>77.5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32.5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>45</v>
       </c>
@@ -17335,17 +17335,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>395.2</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>292.39999999999998</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>413.3</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>337.2</v>
       </c>
@@ -17377,12 +17377,12 @@
         <v>740</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>370.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>225.6</v>
       </c>
@@ -17396,33 +17396,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CA2E44-06B6-2B4E-9AF6-A645982AFFD0}">
   <dimension ref="A3:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -17436,13 +17436,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C7517-6E25-514F-A7B8-FD63CD2C77F6}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>413.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -17466,17 +17466,17 @@
         <v>370.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>121</v>
       </c>
@@ -17494,16 +17494,16 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -17531,7 +17531,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -17546,7 +17546,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -17590,7 +17590,7 @@
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -17613,7 +17613,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -17651,7 +17651,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -17666,7 +17666,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -17687,7 +17687,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -17710,7 +17710,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -17779,7 +17779,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -17817,7 +17817,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -17832,7 +17832,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -17853,7 +17853,7 @@
       </c>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -17899,7 +17899,7 @@
       </c>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -17922,7 +17922,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -17934,7 +17934,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -18066,7 +18066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -18099,7 +18099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -18121,7 +18121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
@@ -18143,59 +18143,59 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>36</v>
       </c>
@@ -18216,18 +18216,18 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -18235,7 +18235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -18263,7 +18263,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -18283,7 +18283,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -18315,7 +18315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -18441,7 +18441,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -18489,7 +18489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -18497,7 +18497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -18505,7 +18505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -18609,7 +18609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -18633,7 +18633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -18657,7 +18657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -18665,7 +18665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
@@ -18697,51 +18697,51 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>36</v>
       </c>
@@ -18761,18 +18761,18 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -18996,7 +18996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -19010,7 +19010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -19080,7 +19080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -19108,7 +19108,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -19276,7 +19276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -19304,7 +19304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
@@ -19402,55 +19402,55 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="K50" s="8"/>
@@ -19474,18 +19474,18 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -19508,7 +19508,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -19532,7 +19532,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -19556,7 +19556,7 @@
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -19634,7 +19634,7 @@
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -19676,7 +19676,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -19838,7 +19838,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -19886,7 +19886,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>19</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>16</v>
       </c>
@@ -19994,7 +19994,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
@@ -20018,7 +20018,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
@@ -20054,7 +20054,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>16</v>
       </c>
@@ -20090,7 +20090,7 @@
         <v>Younger</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
@@ -20114,39 +20114,39 @@
         <v>Older</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
     </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
     </row>
@@ -20164,16 +20164,16 @@
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -20187,7 +20187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>78</v>
       </c>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="U2" s="36"/>
     </row>
-    <row r="3" spans="1:23" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>121</v>
       </c>
@@ -20231,7 +20231,7 @@
       </c>
       <c r="U3" s="37"/>
     </row>
-    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>230</v>
       </c>
@@ -20253,7 +20253,7 @@
       </c>
       <c r="W4" s="34"/>
     </row>
-    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>288</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>339</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>370.76470588235293</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>522</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>54.732137121713379</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>649</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>172</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>250</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>225.66638246861362</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>578</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>50925.316176470602</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>740</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>-1.3988576218932209</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>120</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>0.35656990181918469</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>138</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>316</v>
       </c>
@@ -20593,7 +20593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>656</v>
       </c>
@@ -20625,7 +20625,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>416</v>
       </c>
@@ -20657,7 +20657,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>690</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>31</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>49</v>
       </c>
@@ -20705,7 +20705,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>113</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>127</v>
       </c>
@@ -20727,7 +20727,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>139</v>
       </c>
@@ -20738,7 +20738,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>265</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>265</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>303</v>
       </c>
@@ -20765,7 +20765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>590</v>
       </c>
@@ -20773,7 +20773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>957</v>
       </c>
@@ -20781,7 +20781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>972</v>
       </c>
@@ -20789,7 +20789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>75</v>
       </c>
@@ -20797,7 +20797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>189</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>273</v>
       </c>
@@ -20813,7 +20813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>277</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>466</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>702</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>762</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1252</v>
       </c>
@@ -20853,7 +20853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>176</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>272</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>613</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>638</v>
       </c>
@@ -20885,51 +20885,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="8" t="s">
         <v>36</v>
@@ -20952,20 +20952,20 @@
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>31</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>49</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>78</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>113</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>121</v>
       </c>
@@ -21013,7 +21013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>127</v>
       </c>
@@ -21021,7 +21021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>139</v>
       </c>
@@ -21029,7 +21029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>230</v>
       </c>
@@ -21037,7 +21037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>265</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>265</v>
       </c>
@@ -21053,7 +21053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>288</v>
       </c>
@@ -21061,7 +21061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>339</v>
       </c>
@@ -21069,7 +21069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>522</v>
       </c>
@@ -21077,7 +21077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>649</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>-0.94770726468004396</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>172</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>250</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>303</v>
       </c>
@@ -21116,7 +21116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>578</v>
       </c>
@@ -21127,7 +21127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>590</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>740</v>
       </c>
@@ -21147,7 +21147,7 @@
       </c>
       <c r="E21" s="35"/>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>957</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>0.94770726468004407</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>972</v>
       </c>
@@ -21175,7 +21175,7 @@
         <v>0.89814905952733115</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>75</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>0.8954687716201557</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>120</v>
       </c>
@@ -21203,7 +21203,7 @@
         <v>94.540494453861925</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>138</v>
       </c>
@@ -21217,7 +21217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>189</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>273</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>277</v>
       </c>
@@ -21260,7 +21260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>316</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>1.917034377044117E-20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>466</v>
       </c>
@@ -21306,7 +21306,7 @@
         <v>8937.9050915806965</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>656</v>
       </c>
@@ -21326,7 +21326,7 @@
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
     </row>
-    <row r="33" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>702</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>762</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1252</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>925.41355577816125</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>176</v>
       </c>
@@ -21437,7 +21437,7 @@
         <v>-57.268396838658873</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>272</v>
       </c>
@@ -21445,7 +21445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>416</v>
       </c>
@@ -21453,7 +21453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>613</v>
       </c>
@@ -21468,7 +21468,7 @@
         <v>865.26557308970109</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>638</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>-64.389119601328915</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>690</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
       <c r="D42" s="34" t="s">
@@ -21529,7 +21529,7 @@
         <v>221.37437707641197</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="5"/>
       <c r="D43">
@@ -21548,7 +21548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="5"/>
       <c r="D44">
@@ -21567,7 +21567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="5"/>
       <c r="D45">
@@ -21586,7 +21586,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="5"/>
       <c r="D46">
@@ -21605,7 +21605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="5"/>
       <c r="D47">
@@ -21624,7 +21624,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="5"/>
       <c r="D48">
@@ -21643,7 +21643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="5"/>
       <c r="D49">
@@ -21662,7 +21662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="D50">
@@ -21681,7 +21681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>9</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>10</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>11</v>
       </c>
@@ -21732,7 +21732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>12</v>
       </c>
@@ -21749,7 +21749,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>13</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>14</v>
       </c>
@@ -21783,7 +21783,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>15</v>
       </c>
@@ -21800,7 +21800,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>16</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>17</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>18</v>
       </c>
@@ -21851,7 +21851,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>19</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>20</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>21</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>22</v>
       </c>
@@ -21919,7 +21919,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>23</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>24</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>25</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>26</v>
       </c>
@@ -21987,7 +21987,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>27</v>
       </c>
@@ -22004,7 +22004,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>28</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>29</v>
       </c>
@@ -22038,7 +22038,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>30</v>
       </c>
@@ -22055,7 +22055,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>31</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>32</v>
       </c>
@@ -22089,7 +22089,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>33</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>34</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>35</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>36</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>37</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>38</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>39</v>
       </c>
@@ -22208,7 +22208,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="82" spans="4:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="33">
         <v>40</v>
       </c>
@@ -22242,15 +22242,15 @@
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -22261,7 +22261,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>31</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>49</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>78</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>113</v>
       </c>
@@ -22328,7 +22328,7 @@
       </c>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>121</v>
       </c>
@@ -22346,7 +22346,7 @@
         <v>7.2832474801816816E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>127</v>
       </c>
@@ -22364,7 +22364,7 @@
         <v>5.3045693857572815E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>139</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>-2.0871626156722788E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>230</v>
       </c>
@@ -22400,7 +22400,7 @@
         <v>295.4475609535271</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>265</v>
       </c>
@@ -22418,7 +22418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>265</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>288</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>339</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>522</v>
       </c>
@@ -22503,7 +22503,7 @@
         <v>0.65514921244782298</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>649</v>
       </c>
@@ -22527,7 +22527,7 @@
         <v>87289.261273388096</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>172</v>
       </c>
@@ -22551,7 +22551,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>250</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>303</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>578</v>
       </c>
@@ -22639,7 +22639,7 @@
         <v>515.82582544723141</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>590</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>233.84058132375878</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>740</v>
       </c>
@@ -22690,7 +22690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>957</v>
       </c>
@@ -22702,7 +22702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>972</v>
       </c>
@@ -22714,7 +22714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>75</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>120</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>138</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>189</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>273</v>
       </c>
@@ -22774,7 +22774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>277</v>
       </c>
@@ -22786,7 +22786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>316</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>466</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>656</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>702</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>762</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1252</v>
       </c>
@@ -22858,7 +22858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>176</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>272</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>416</v>
       </c>
@@ -22894,7 +22894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>613</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>638</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>690</v>
       </c>
@@ -22930,51 +22930,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="8" t="s">
         <v>36</v>
@@ -22993,16 +22993,16 @@
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -23042,7 +23042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -23071,7 +23071,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -23100,7 +23100,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -23146,7 +23146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -23175,7 +23175,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -23291,7 +23291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -23395,7 +23395,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -23424,7 +23424,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -23453,7 +23453,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -23511,7 +23511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -23615,7 +23615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -23643,7 +23643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -23657,7 +23657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
@@ -23671,7 +23671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
@@ -23685,7 +23685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>20</v>
       </c>
@@ -23713,7 +23713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>13</v>
       </c>
@@ -23727,7 +23727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -23741,7 +23741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -23769,7 +23769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>13</v>
       </c>
@@ -23811,7 +23811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>13</v>
       </c>
@@ -23839,7 +23839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -23853,7 +23853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
@@ -23867,7 +23867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>58</v>
       </c>
@@ -23928,7 +23928,7 @@
         <v>14.202834675532662</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>3.0195559191241932</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>51</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>26.327162535667515</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>68</v>
       </c>
@@ -24024,7 +24024,7 @@
         <v>11.297378865505458</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>41</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>2.2869473551282731</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>56</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>292.41176512687611</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>54</v>
       </c>
@@ -24120,7 +24120,7 @@
         <v>4.3038444352784087</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>65</v>
       </c>
@@ -24143,7 +24143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>47</v>
       </c>
@@ -24166,7 +24166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>51</v>
       </c>
@@ -24189,7 +24189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44</v>
       </c>
@@ -24224,7 +24224,7 @@
       </c>
       <c r="P55" s="35"/>
     </row>
-    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>66</v>
       </c>
@@ -24247,7 +24247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>23</v>
       </c>
@@ -24288,7 +24288,7 @@
         <v>172.5500000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>73</v>
       </c>
@@ -24329,7 +24329,7 @@
         <v>4.1626898971081641</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>35</v>
       </c>
@@ -24370,7 +24370,7 @@
         <v>169.95</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>77</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>29</v>
       </c>
@@ -24452,7 +24452,7 @@
         <v>26.327162535667515</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>68</v>
       </c>
@@ -24493,7 +24493,7 @@
         <v>693.11948717945518</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>68</v>
       </c>
@@ -24534,7 +24534,7 @@
         <v>-0.16641631736650631</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>34</v>
       </c>
@@ -24575,7 +24575,7 @@
         <v>0.37037477969411386</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>48</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44</v>
       </c>
@@ -24657,7 +24657,7 @@
         <v>119.5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>32</v>
       </c>
@@ -24698,7 +24698,7 @@
         <v>237.1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>46</v>
       </c>
@@ -24739,7 +24739,7 @@
         <v>6902.0000000000036</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>20</v>
       </c>
@@ -24780,7 +24780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>52</v>
       </c>
@@ -24812,7 +24812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>62</v>
       </c>
@@ -24835,7 +24835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>42</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>48</v>
       </c>
@@ -24897,7 +24897,7 @@
       </c>
       <c r="S73" s="35"/>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>55</v>
       </c>
@@ -24920,7 +24920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>66</v>
       </c>
@@ -24967,7 +24967,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>36</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>0.68049755552604529</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>42</v>
       </c>
@@ -25061,7 +25061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>60</v>
       </c>
@@ -25108,7 +25108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>73</v>
       </c>
@@ -25155,7 +25155,7 @@
         <v>4.3038444352784087</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>52</v>
       </c>
@@ -25202,7 +25202,7 @@
         <v>18.523076923076925</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>33</v>
       </c>
@@ -25249,7 +25249,7 @@
         <v>-1.1479706940548411</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>37</v>
       </c>
@@ -25296,7 +25296,7 @@
         <v>-0.13923148100207461</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>40</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>53</v>
       </c>
@@ -25390,7 +25390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
         <v>60</v>
       </c>
@@ -25416,7 +25416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
         <v>61</v>
       </c>
@@ -25442,7 +25442,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I87" s="33" t="s">
         <v>62</v>
       </c>
@@ -25468,7 +25468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J88">
         <v>1</v>
       </c>
